--- a/Data Plan.xlsx
+++ b/Data Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\BouyDev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89048637-1FE4-403A-8FE6-4D4DCFE76C4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B325024-826E-4FB4-A584-6DE3678A6D4F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{25128CE4-9F69-4499-9EB4-4F69B66F27CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{25128CE4-9F69-4499-9EB4-4F69B66F27CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Sample rate</t>
   </si>
@@ -154,6 +155,54 @@
   </si>
   <si>
     <t>Option 8</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS </t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Battery Voltage</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling </t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>2 Hz</t>
+  </si>
+  <si>
+    <t>GPS Sample Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 mins</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>every 8 hours</t>
+  </si>
+  <si>
+    <t>Queue Unsent packets</t>
+  </si>
+  <si>
+    <t>Timeout</t>
+  </si>
+  <si>
+    <t>Packet Size</t>
   </si>
 </sst>
 </file>
@@ -162,8 +211,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="[$£-809]#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -221,17 +270,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -239,10 +292,13 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="169" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="[$£-809]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -261,9 +317,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$£-809]#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -294,7 +347,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{84A3F131-2806-4C68-A463-43B3C5BC3102}" name="Table3" displayName="Table3" ref="F8:H14" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{84A3F131-2806-4C68-A463-43B3C5BC3102}" name="Table3" displayName="Table3" ref="F8:H15" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{887CB58F-0568-4217-BDA2-3DE2456CADE0}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{5AE3CCFC-24F3-4EA4-B6AF-01A507D18657}" name="Column2"/>
@@ -315,10 +368,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{116675C5-2471-41F4-9BB6-2638CB685A35}" name="Table6" displayName="Table6" ref="F18:H21" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{116675C5-2471-41F4-9BB6-2638CB685A35}" name="Table6" displayName="Table6" ref="F19:H22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A97D763A-461A-4D46-A324-A2068217AC1D}" name="Total Costing" headerRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{BBC8910B-0C8F-4A02-AE7E-D3B53E242A23}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A97D763A-461A-4D46-A324-A2068217AC1D}" name="Total Costing" headerRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BBC8910B-0C8F-4A02-AE7E-D3B53E242A23}" name="Column1" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{AED96D5E-DB57-4E59-91E6-90318333FA11}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
@@ -650,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97E8E2B-16A3-447E-98F8-15C2B4685094}">
-  <dimension ref="C7:H21"/>
+  <dimension ref="C4:O22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:M23"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,72 +722,110 @@
     <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6">
         <v>8</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="8"/>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <f>_xlfn.CEILING.MATH(D12/340)</f>
-        <v>159</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="7">
+        <v>340</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="L8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <f>_xlfn.CEILING.MATH(340*G8/50)</f>
-        <v>1082</v>
+        <f>_xlfn.CEILING.MATH(D12/G8)</f>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10">
-        <f>15*60</f>
-        <v>900</v>
+        <f>20*60</f>
+        <v>1200</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+        <f>_xlfn.CEILING.MATH(340*G9/50)</f>
+        <v>578</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
@@ -742,49 +833,84 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D12">
         <f>D11*$D$9*$D$10*D8</f>
-        <v>54000</v>
+        <v>28800</v>
       </c>
       <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="G12">
-        <f>G9*G10*G11</f>
-        <v>32460</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F13" t="s">
+      <c r="G13">
+        <f>G10*G11*G12</f>
+        <v>17340</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
         <v>16</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f>D20/50</f>
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="4">
-        <f>G12+G13</f>
-        <v>32550</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3">
+        <f>G13+G14</f>
+        <v>17430</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
@@ -794,9 +920,6 @@
       <c r="D17">
         <v>25</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
@@ -806,11 +929,8 @@
         <f>24/4</f>
         <v>6</v>
       </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
@@ -818,14 +938,14 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <f>G11</f>
+        <f>G12</f>
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
@@ -837,22 +957,30 @@
         <v>4500</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20">
-        <f>(G18+G19)*G13+G18*G12</f>
-        <v>97920</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <f>(G19+G20)*G14+G19*G13</f>
+        <v>17880</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="5">
-        <f>SUM(G18:G19)*12</f>
+      <c r="G22" s="4">
+        <f>SUM(G19:G20)*12</f>
         <v>72</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -877,13 +1005,13 @@
   <dimension ref="B3:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.5546875" customWidth="1"/>
@@ -946,14 +1074,14 @@
         <f>M11+M9+M8</f>
         <v>27000</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f>N11+N9+N7</f>
         <v>1180</v>
       </c>
       <c r="M4">
         <v>100</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>11</v>
       </c>
       <c r="O4">
@@ -980,14 +1108,14 @@
         <f>M11+M11+M10+M8+M6+M4</f>
         <v>52600</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>2*N11+N10+N8+N6+N4</f>
         <v>2296</v>
       </c>
       <c r="M5">
         <v>200</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>20</v>
       </c>
       <c r="O5">
@@ -1014,14 +1142,14 @@
         <f>M11+M5</f>
         <v>20200</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>N11+N5</f>
         <v>820</v>
       </c>
       <c r="M6">
         <v>500</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>45</v>
       </c>
       <c r="O6">
@@ -1048,14 +1176,14 @@
         <f>2*M11</f>
         <v>40000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f>2*N11</f>
         <v>1600</v>
       </c>
       <c r="M7">
         <v>1000</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>80</v>
       </c>
       <c r="O7">
@@ -1082,14 +1210,14 @@
         <f>3*M11+M9+M6</f>
         <v>65500</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f>3*N11+N9+N6</f>
         <v>2745</v>
       </c>
       <c r="M8">
         <v>2000</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>140</v>
       </c>
       <c r="O8">
@@ -1116,14 +1244,14 @@
         <f>6*M11+M10+2*M5</f>
         <v>130400</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f>6*N11+N10+2*N5</f>
         <v>5340</v>
       </c>
       <c r="M9">
         <v>5000</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>300</v>
       </c>
       <c r="O9">
@@ -1150,14 +1278,14 @@
         <f>2*M11+Table5[[#This Row],[Credits]]</f>
         <v>50000</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f>2*N11+Table5[[#This Row],[Total Cost]]</f>
         <v>2100</v>
       </c>
       <c r="M10">
         <v>10000</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>500</v>
       </c>
       <c r="O10">
@@ -1184,14 +1312,14 @@
         <f>5*Table5[[#This Row],[Credits]]</f>
         <v>100000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <f>5*Table5[[#This Row],[Total Cost]]</f>
         <v>4000</v>
       </c>
       <c r="M11">
         <v>20000</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>800</v>
       </c>
       <c r="O11">
